--- a/docs/backlog.xlsx
+++ b/docs/backlog.xlsx
@@ -50,9 +50,6 @@
     <t>Estimation</t>
   </si>
   <si>
-    <t>Как незарегистрированный пользователь я хочу зарегистрироваться в системе, чтобы использовать ее функции в полном объеме</t>
-  </si>
-  <si>
     <t>Открыть приложение, нажать на кнопку "Зарегистрироваться", ввести данные для регистрации</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
     <t>Войти в систему, выбрать карту, создать метку, ввести о ней необходимую информацию в текстовые поля</t>
   </si>
   <si>
-    <t>Как пользователь, я хочу осуществлять поиск меток по определенным характеристикам, чтобы быстро находить интересующие меня объекты</t>
-  </si>
-  <si>
     <t>Открыть приложение, выбрать интересующую карту, нажать кнопку "Поиск", выбрать параметры поиска</t>
   </si>
   <si>
@@ -86,9 +80,6 @@
     <t>Открыть приложение, выбрать интересующую карту, нажать кнопку "Сортировка", выбрать параметры сортировки</t>
   </si>
   <si>
-    <t>Как зарегистрированный пользователь, я хочу добавлять метки на карты других пользователей, чтобы они становились полезнее</t>
-  </si>
-  <si>
     <t>Войти в систему, найти интересующую карту, нажав "Поиск карты", добавить на нее метку</t>
   </si>
   <si>
@@ -219,6 +210,15 @@
   </si>
   <si>
     <t>srs</t>
+  </si>
+  <si>
+    <t>Как незарегистрированный пользователь я хочу зарегистрироваться в системе, чтобы иметь доступ к редактированию карт</t>
+  </si>
+  <si>
+    <t>Как пользователь, я хочу осуществлять поиск меток по определенным характеристикам, чтобы быстро находить интересующие меня объекты среди множества остальных</t>
+  </si>
+  <si>
+    <t>Как зарегистрированный пользователь, я хочу добавлять метки на карты других пользователей, чтобы наполнять их</t>
   </si>
 </sst>
 </file>
@@ -710,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,10 +767,10 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="G5" s="4">
         <v>5</v>
@@ -784,10 +784,10 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="G6" s="4">
         <v>6</v>
@@ -805,10 +805,10 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="G7" s="4">
         <v>3</v>
@@ -826,10 +826,10 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="G8" s="4">
         <v>4</v>
@@ -843,10 +843,10 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G9" s="4">
         <v>3</v>
@@ -860,10 +860,10 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G10" s="4">
         <v>3</v>
@@ -880,10 +880,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G11" s="4">
         <v>2</v>
@@ -897,10 +897,10 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G12" s="4">
         <v>3</v>
@@ -914,10 +914,10 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G13" s="4">
         <v>2</v>
@@ -931,10 +931,10 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G14" s="4">
         <v>3</v>
@@ -952,10 +952,10 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G15" s="4">
         <v>3</v>
@@ -969,7 +969,7 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -1085,145 +1085,145 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="F31" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="F32" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="F33" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">

--- a/docs/backlog.xlsx
+++ b/docs/backlog.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>Project Name</t>
   </si>
@@ -50,9 +50,18 @@
     <t>Estimation</t>
   </si>
   <si>
+    <t>Как незарегистрированный пользователь я хочу зарегистрироваться в системе, чтобы использовать ее функции в полном объеме</t>
+  </si>
+  <si>
     <t>Открыть приложение, нажать на кнопку "Зарегистрироваться", ввести данные для регистрации</t>
   </si>
   <si>
+    <t>Как зарегистрированный пользователь, я хочу войти в систему, чтобы использовать ее функции в полном объеме</t>
+  </si>
+  <si>
+    <t>Нажать на кнопку "Войти", ввести логин и пароль</t>
+  </si>
+  <si>
     <t>Как незарегистрированный пользователь, я хочу просмотреть карты других пользователей, чтобы узнать, где находится интересующий меня объект</t>
   </si>
   <si>
@@ -71,6 +80,9 @@
     <t>Войти в систему, выбрать карту, создать метку, ввести о ней необходимую информацию в текстовые поля</t>
   </si>
   <si>
+    <t>Как пользователь, я хочу осуществлять поиск меток по определенным характеристикам, чтобы быстро находить интересующие меня объекты</t>
+  </si>
+  <si>
     <t>Открыть приложение, выбрать интересующую карту, нажать кнопку "Поиск", выбрать параметры поиска</t>
   </si>
   <si>
@@ -80,6 +92,9 @@
     <t>Открыть приложение, выбрать интересующую карту, нажать кнопку "Сортировка", выбрать параметры сортировки</t>
   </si>
   <si>
+    <t>Как зарегистрированный пользователь, я хочу добавлять метки на карты других пользователей, чтобы они становились полезнее</t>
+  </si>
+  <si>
     <t>Войти в систему, найти интересующую карту, нажав "Поиск карты", добавить на нее метку</t>
   </si>
   <si>
@@ -161,9 +176,6 @@
     <t>Шилин</t>
   </si>
   <si>
-    <t>oleksandr.shylin@nure.ua</t>
-  </si>
-  <si>
     <t>Ирина</t>
   </si>
   <si>
@@ -182,9 +194,6 @@
     <t>Рассоха</t>
   </si>
   <si>
-    <t>бизнес-аналитик</t>
-  </si>
-  <si>
     <t>olha.rassokha@nure.ua</t>
   </si>
   <si>
@@ -194,9 +203,6 @@
     <t>Никонова</t>
   </si>
   <si>
-    <t>дизайнер</t>
-  </si>
-  <si>
     <t>anna.nikonova@nure.ua</t>
   </si>
   <si>
@@ -206,19 +212,19 @@
     <t>Камянский</t>
   </si>
   <si>
-    <t>ihor.kamianskiy@nure.ua</t>
-  </si>
-  <si>
     <t>srs</t>
   </si>
   <si>
-    <t>Как незарегистрированный пользователь я хочу зарегистрироваться в системе, чтобы иметь доступ к редактированию карт</t>
-  </si>
-  <si>
-    <t>Как пользователь, я хочу осуществлять поиск меток по определенным характеристикам, чтобы быстро находить интересующие меня объекты среди множества остальных</t>
-  </si>
-  <si>
-    <t>Как зарегистрированный пользователь, я хочу добавлять метки на карты других пользователей, чтобы наполнять их</t>
+    <t>oleksandr.shylin1@nure.ua</t>
+  </si>
+  <si>
+    <t>тестировщик, дизайнер</t>
+  </si>
+  <si>
+    <t>kamyanskiy.i@gmail.com</t>
+  </si>
+  <si>
+    <t>бизнес-аналитик, проектировщик базы данных</t>
   </si>
 </sst>
 </file>
@@ -313,7 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -338,6 +344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -708,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G42"/>
+  <dimension ref="A2:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,10 +774,10 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5" s="4">
         <v>5</v>
@@ -784,75 +791,75 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="4">
-        <v>100</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>4</v>
       </c>
       <c r="B8" s="4">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="4">
+        <v>90</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="G9" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -860,53 +867,53 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G10" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="4">
-        <v>80</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="G11" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="4">
+        <v>80</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
       <c r="E12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="G12" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -914,16 +921,16 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G13" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -931,55 +938,63 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G14" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="4">
-        <v>70</v>
-      </c>
-      <c r="C15" s="4">
-        <v>1</v>
-      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G15" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4">
+        <v>70</v>
+      </c>
       <c r="C16" s="4">
         <v>1</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="E16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
@@ -1073,48 +1088,39 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" s="10" t="s">
+      <c r="B31" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12" t="s">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1145,31 +1151,31 @@
         <v>45</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>41</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1181,10 +1187,10 @@
         <v>52</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>54</v>
@@ -1199,40 +1205,50 @@
         <v>56</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E37" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="D38" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="14" t="s">
         <v>60</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
+      <c r="B39" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
@@ -1258,15 +1274,23 @@
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
     </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F32" r:id="rId1"/>
-    <hyperlink ref="F33" r:id="rId2"/>
-    <hyperlink ref="F34" r:id="rId3"/>
-    <hyperlink ref="F35" r:id="rId4"/>
-    <hyperlink ref="F36" r:id="rId5"/>
-    <hyperlink ref="F37" r:id="rId6"/>
-    <hyperlink ref="F38" r:id="rId7"/>
+    <hyperlink ref="F33" r:id="rId1"/>
+    <hyperlink ref="F34" r:id="rId2"/>
+    <hyperlink ref="F35" r:id="rId3"/>
+    <hyperlink ref="F36" r:id="rId4"/>
+    <hyperlink ref="F37" r:id="rId5"/>
+    <hyperlink ref="F38" r:id="rId6"/>
+    <hyperlink ref="F39" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/docs/backlog.xlsx
+++ b/docs/backlog.xlsx
@@ -350,8 +350,36 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -717,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,7 +799,9 @@
         <v>1</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5" t="s">
         <v>9</v>
@@ -788,7 +818,9 @@
         <v>2</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
         <v>11</v>
@@ -805,7 +837,9 @@
         <v>3</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
         <v>13</v>
@@ -935,7 +969,9 @@
         <v>10</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="5" t="s">
         <v>27</v>

--- a/docs/backlog.xlsx
+++ b/docs/backlog.xlsx
@@ -745,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,9 +969,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="4">
-        <v>2</v>
-      </c>
+      <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5" t="s">
         <v>27</v>

--- a/docs/backlog.xlsx
+++ b/docs/backlog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
   <si>
     <t>Project Name</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>бизнес-аналитик, проектировщик базы данных</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>in progress</t>
   </si>
 </sst>
 </file>
@@ -282,7 +288,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -314,12 +320,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -345,6 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -745,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,7 +820,9 @@
       <c r="C5" s="4">
         <v>2</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
@@ -821,7 +841,9 @@
       <c r="C6" s="4">
         <v>2</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
@@ -840,7 +862,9 @@
       <c r="C7" s="4">
         <v>2</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
@@ -848,7 +872,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -861,7 +885,9 @@
       <c r="C8" s="4">
         <v>1</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="E8" s="5" t="s">
         <v>15</v>
       </c>
@@ -882,7 +908,9 @@
       <c r="C9" s="4">
         <v>1</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="E9" s="5" t="s">
         <v>17</v>
       </c>
@@ -898,8 +926,12 @@
         <v>6</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="C10" s="4">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="E10" s="5" t="s">
         <v>19</v>
       </c>
@@ -915,8 +947,12 @@
         <v>7</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="C11" s="4">
+        <v>3</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="E11" s="5" t="s">
         <v>21</v>
       </c>
@@ -937,6 +973,9 @@
       <c r="C12" s="4">
         <v>1</v>
       </c>
+      <c r="D12" s="15" t="s">
+        <v>68</v>
+      </c>
       <c r="E12" s="5" t="s">
         <v>23</v>
       </c>
@@ -952,8 +991,12 @@
         <v>9</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="C13" s="4">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="E13" s="5" t="s">
         <v>25</v>
       </c>
@@ -1008,7 +1051,9 @@
       <c r="C16" s="4">
         <v>1</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="E16" s="5" t="s">
         <v>31</v>
       </c>
@@ -1025,7 +1070,9 @@
       <c r="C17" s="4">
         <v>1</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="E17" s="4" t="s">
         <v>63</v>
       </c>

--- a/docs/backlog.xlsx
+++ b/docs/backlog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
   <si>
     <t>Project Name</t>
   </si>
@@ -230,7 +230,7 @@
     <t>done</t>
   </si>
   <si>
-    <t>in progress</t>
+    <t>Hours</t>
   </si>
 </sst>
 </file>
@@ -262,7 +262,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,6 +285,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB9CDE5"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -336,7 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -346,9 +364,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -362,7 +377,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -761,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G43"/>
+  <dimension ref="A2:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,10 +813,10 @@
     <col min="5" max="5" width="77.7109375"/>
     <col min="6" max="6" width="41"/>
     <col min="7" max="7" width="17.42578125"/>
-    <col min="8" max="1025" width="8.5703125"/>
+    <col min="9" max="1026" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -789,7 +826,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -811,203 +848,233 @@
       <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H4" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G5" s="16">
+        <v>3</v>
+      </c>
+      <c r="H5" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16">
         <v>2</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G6" s="16">
+        <v>5</v>
+      </c>
+      <c r="H6" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16">
         <v>2</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G7" s="16">
+        <v>5</v>
+      </c>
+      <c r="H7" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="19">
         <v>100</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="19">
         <v>1</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H8" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="19">
         <v>90</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="19">
         <v>1</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G9" s="19">
+        <v>5</v>
+      </c>
+      <c r="H9" s="21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23">
         <v>3</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="G10" s="23">
+        <v>5</v>
+      </c>
+      <c r="H10" s="26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23">
         <v>3</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G11" s="23">
+        <v>5</v>
+      </c>
+      <c r="H11" s="26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="19">
         <v>80</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="19">
         <v>1</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G12" s="19">
+        <v>5</v>
+      </c>
+      <c r="H12" s="21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23">
         <v>3</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G13" s="23">
+        <v>8</v>
+      </c>
+      <c r="H13" s="26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -1021,10 +1088,11 @@
         <v>28</v>
       </c>
       <c r="G14" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>11</v>
       </c>
@@ -1040,31 +1108,35 @@
       <c r="G15" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="19">
         <v>70</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="19">
         <v>1</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16" s="19">
+        <v>5</v>
+      </c>
+      <c r="H16" s="21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4">
@@ -1078,8 +1150,9 @@
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1087,8 +1160,9 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1096,8 +1170,9 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1105,8 +1180,9 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1114,8 +1190,9 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1123,8 +1200,9 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1132,8 +1210,9 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1141,8 +1220,9 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1150,8 +1230,9 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1159,8 +1240,9 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1168,8 +1250,9 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1177,191 +1260,192 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="7" t="s">
+      <c r="H28" s="15"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10" t="s">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12" t="s">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="12" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12" t="s">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12" t="s">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12" t="s">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F38" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12" t="s">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="F39" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/docs/backlog.xlsx
+++ b/docs/backlog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="90">
   <si>
     <t>Project Name</t>
   </si>
@@ -50,15 +50,9 @@
     <t>Estimation</t>
   </si>
   <si>
-    <t>Как незарегистрированный пользователь я хочу зарегистрироваться в системе, чтобы использовать ее функции в полном объеме</t>
-  </si>
-  <si>
     <t>Открыть приложение, нажать на кнопку "Зарегистрироваться", ввести данные для регистрации</t>
   </si>
   <si>
-    <t>Как зарегистрированный пользователь, я хочу войти в систему, чтобы использовать ее функции в полном объеме</t>
-  </si>
-  <si>
     <t>Нажать на кнопку "Войти", ввести логин и пароль</t>
   </si>
   <si>
@@ -68,9 +62,6 @@
     <t>Открыть приложение, выбрать интересующую карту</t>
   </si>
   <si>
-    <t>Как зарегистрированный пользователь, я хочу добавить метку на пустую карту, чтобы в будущем знать, где находится тот или иной объект</t>
-  </si>
-  <si>
     <t>Войти в систему, выбрать в меню "Создать новую карту", поставить метку</t>
   </si>
   <si>
@@ -92,9 +83,6 @@
     <t>Открыть приложение, выбрать интересующую карту, нажать кнопку "Сортировка", выбрать параметры сортировки</t>
   </si>
   <si>
-    <t>Как зарегистрированный пользователь, я хочу добавлять метки на карты других пользователей, чтобы они становились полезнее</t>
-  </si>
-  <si>
     <t>Войти в систему, найти интересующую карту, нажав "Поиск карты", добавить на нее метку</t>
   </si>
   <si>
@@ -231,6 +219,78 @@
   </si>
   <si>
     <t>Hours</t>
+  </si>
+  <si>
+    <t>рефакторинг кода</t>
+  </si>
+  <si>
+    <t>Как пользователь я хочу иметь возможность редактировать информацию своего профиля, чтобы она была более актуальной</t>
+  </si>
+  <si>
+    <t>Войти в систему, нажать "Профиль", изменить нужные данные</t>
+  </si>
+  <si>
+    <t>Открыть приложение</t>
+  </si>
+  <si>
+    <t>Как зарегистрированный пользователь, я хочу добавить метку на свою карту, чтобы в будущем знать, где находится тот или иной объект</t>
+  </si>
+  <si>
+    <t>Как пользователь я хочу просматривать информацию о метке, чтобы узнавать о ней дополнительную информацию</t>
+  </si>
+  <si>
+    <t>Нажать на интересующую метку на карте.</t>
+  </si>
+  <si>
+    <t>Как пользователь я хочу искать карты других пользователей, чтобы просматривать их и добавлять на них свои объекты.</t>
+  </si>
+  <si>
+    <t>Войти в систему, ввести название интересующей карты  поле поиска.</t>
+  </si>
+  <si>
+    <t>Как пользователь я хочу иметь возможность накладывать карты друг на друга, чтобы быстрее находить объекты.</t>
+  </si>
+  <si>
+    <t>Войти в систему, открыть карту, нажать "Открыть новую", в диалоговом окне выбрать "Наложить"</t>
+  </si>
+  <si>
+    <t>Как пользователь, я хочу видеть карту после входа в приложение, чтобы находить на ней интересующие объекты</t>
+  </si>
+  <si>
+    <t>Как незарегистрированный пользователь я хочу зарегистрироваться в системе, чтобы иметь возможность добавлять карты и метки на них, редактировать информацию о метке</t>
+  </si>
+  <si>
+    <t>Как зарегистрированный пользователь, я хочу войти в систему,чтобы иметь возможность добавлять карты и метки на них, редактировать информацию о метке</t>
+  </si>
+  <si>
+    <t>Как незарегистрированный пользователь, я хочу добавлять метки на карты других пользователей, чтобы они становились полезнее</t>
+  </si>
+  <si>
+    <t>Как пользователь, я хочу получать уведомление об ошибке при вводе некорректных данных в форму регистраии и авторизации</t>
+  </si>
+  <si>
+    <t>Открыть приложение, ввести некорректные данные в форму входа, регистрации</t>
+  </si>
+  <si>
+    <t>Как пользователь, я хочу иметь возможность просматривать информацию своего профиля</t>
+  </si>
+  <si>
+    <t>Войти  в систему, нажать профиль</t>
+  </si>
+  <si>
+    <t>Как администратор, я хочу иметь возможность заходить в систему, чтобы удалить ту или иную карту</t>
+  </si>
+  <si>
+    <t>Войти как администратор</t>
+  </si>
+  <si>
+    <t>Как пользователь я хочу иметь возможность открывать окно настроек, чтобы менять параметры работы приложения</t>
+  </si>
+  <si>
+    <t>Открыть приложения, нажать настройки</t>
+  </si>
+  <si>
+    <t>Как пользователь системы я хочу видеть иконки основных функций, чтобы пользоваться системой быстрее</t>
   </si>
 </sst>
 </file>
@@ -262,7 +322,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,6 +362,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,7 +426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -380,7 +452,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -400,6 +471,11 @@
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -801,13 +877,13 @@
   <dimension ref="A2:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625"/>
-    <col min="2" max="2" width="10.85546875"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="11"/>
     <col min="4" max="4" width="12.42578125"/>
     <col min="5" max="5" width="77.7109375"/>
@@ -849,228 +925,226 @@
         <v>8</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15">
         <v>2</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="17" t="s">
+      <c r="D5" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="16">
-        <v>3</v>
-      </c>
-      <c r="H5" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G5" s="15">
+        <v>8</v>
+      </c>
+      <c r="H5" s="17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15">
         <v>2</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="16">
-        <v>5</v>
-      </c>
-      <c r="H6" s="18">
-        <v>12</v>
+      <c r="D6" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="15">
+        <v>8</v>
+      </c>
+      <c r="H6" s="17">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15">
         <v>2</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="16">
-        <v>5</v>
-      </c>
-      <c r="H7" s="18">
-        <v>13</v>
+      <c r="D7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="15">
+        <v>8</v>
+      </c>
+      <c r="H7" s="17">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>100</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <v>1</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="19">
-        <v>3</v>
-      </c>
-      <c r="H8" s="21">
-        <v>9</v>
+      <c r="D8" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="18">
+        <v>5</v>
+      </c>
+      <c r="H8" s="20">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <v>90</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <v>1</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="19">
-        <v>5</v>
-      </c>
-      <c r="H9" s="21">
+      <c r="D9" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>15</v>
+      </c>
+      <c r="G9" s="18">
+        <v>8</v>
+      </c>
+      <c r="H9" s="20">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22">
         <v>3</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="25" t="s">
+      <c r="D10" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="22">
+        <v>8</v>
+      </c>
+      <c r="H10" s="25">
         <v>20</v>
-      </c>
-      <c r="G10" s="23">
-        <v>5</v>
-      </c>
-      <c r="H10" s="26">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22">
         <v>3</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="23">
-        <v>5</v>
-      </c>
-      <c r="H11" s="26">
-        <v>14</v>
+      <c r="D11" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="22">
+        <v>8</v>
+      </c>
+      <c r="H11" s="25">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="19">
-        <v>80</v>
-      </c>
-      <c r="C12" s="19">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18">
         <v>1</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="19">
+      <c r="D12" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="18">
         <v>5</v>
       </c>
-      <c r="H12" s="21">
-        <v>13</v>
+      <c r="H12" s="20">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22">
         <v>3</v>
       </c>
-      <c r="D13" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="23">
+      <c r="D13" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="22">
         <v>8</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="25">
         <v>20</v>
       </c>
     </row>
@@ -1079,192 +1153,384 @@
         <v>10</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="C14" s="4">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="E14" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G14" s="4">
-        <v>3</v>
-      </c>
-      <c r="H14" s="15"/>
+        <v>5</v>
+      </c>
+      <c r="H14" s="25">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>11</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="C15" s="4">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="E15" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G15" s="4">
-        <v>3</v>
-      </c>
-      <c r="H15" s="15"/>
+        <v>8</v>
+      </c>
+      <c r="H15" s="25">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <v>70</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="18">
         <v>1</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="18">
+        <v>5</v>
+      </c>
+      <c r="H16" s="20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>13</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18">
+        <v>1</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18">
+        <v>2</v>
+      </c>
+      <c r="H17" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4">
+        <v>4</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4">
+        <v>5</v>
+      </c>
+      <c r="H18" s="25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
+        <v>15</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26">
+        <v>3</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="19">
+      <c r="G19" s="26">
         <v>5</v>
       </c>
-      <c r="H16" s="21">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4">
+      <c r="H19" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>16</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18">
         <v>1</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="15"/>
+      <c r="D20" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="18">
+        <v>3</v>
+      </c>
+      <c r="H20" s="20">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="15"/>
+      <c r="A21" s="18">
+        <v>17</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18">
+        <v>1</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="18">
+        <v>5</v>
+      </c>
+      <c r="H21" s="20">
+        <v>17</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="15"/>
+      <c r="A22" s="18">
+        <v>18</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18">
+        <v>1</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="18">
+        <v>5</v>
+      </c>
+      <c r="H22" s="20">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="15"/>
+      <c r="A23" s="18">
+        <v>19</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18">
+        <v>1</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="18">
+        <v>5</v>
+      </c>
+      <c r="H23" s="20">
+        <v>15</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="15"/>
+      <c r="A24" s="4">
+        <v>20</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15">
+        <v>2</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15">
+        <v>8</v>
+      </c>
+      <c r="H24" s="17">
+        <v>20</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="15"/>
+      <c r="A25" s="4">
+        <v>21</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15">
+        <v>2</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="15">
+        <v>8</v>
+      </c>
+      <c r="H25" s="17">
+        <v>21</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="15"/>
+      <c r="A26" s="4">
+        <v>22</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15">
+        <v>2</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="15">
+        <v>5</v>
+      </c>
+      <c r="H26" s="17">
+        <v>17</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="4">
+        <v>23</v>
+      </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="15"/>
+      <c r="C27" s="4">
+        <v>3</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="4">
+        <v>8</v>
+      </c>
+      <c r="H27" s="17">
+        <v>20</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="15"/>
+      <c r="A28" s="4">
+        <v>24</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26">
+        <v>3</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="26">
+        <v>8</v>
+      </c>
+      <c r="H28" s="27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="28">
+        <v>25</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30">
+        <v>4</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="29">
+        <v>8</v>
+      </c>
+      <c r="H29" s="29">
+        <v>19</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1274,145 +1540,145 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1458,7 +1724,7 @@
     <hyperlink ref="F39" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="0" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
